--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cxcl1-Cxcr2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.914517</v>
+        <v>5.385511999999999</v>
       </c>
       <c r="H2">
-        <v>293.743551</v>
+        <v>16.156536</v>
       </c>
       <c r="I2">
-        <v>0.3384051453457528</v>
+        <v>0.02736372477514656</v>
       </c>
       <c r="J2">
-        <v>0.3384051453457528</v>
+        <v>0.02736372477514657</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N2">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O2">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P2">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q2">
-        <v>15398.78990605573</v>
+        <v>0.08889685141333332</v>
       </c>
       <c r="R2">
-        <v>138589.1091545016</v>
+        <v>0.80007166272</v>
       </c>
       <c r="S2">
-        <v>0.3383960349632449</v>
+        <v>0.02177769359495449</v>
       </c>
       <c r="T2">
-        <v>0.3383960349632449</v>
+        <v>0.02177769359495449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.914517</v>
+        <v>5.385511999999999</v>
       </c>
       <c r="H3">
-        <v>293.743551</v>
+        <v>16.156536</v>
       </c>
       <c r="I3">
-        <v>0.3384051453457528</v>
+        <v>0.02736372477514656</v>
       </c>
       <c r="J3">
-        <v>0.3384051453457528</v>
+        <v>0.02736372477514657</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.012702</v>
       </c>
       <c r="O3">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P3">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q3">
-        <v>0.414570064978</v>
+        <v>0.022802257808</v>
       </c>
       <c r="R3">
-        <v>3.731130584802</v>
+        <v>0.205220320272</v>
       </c>
       <c r="S3">
-        <v>9.110382507903429E-06</v>
+        <v>0.005586031180192081</v>
       </c>
       <c r="T3">
-        <v>9.110382507903429E-06</v>
+        <v>0.005586031180192082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>461.27314</v>
       </c>
       <c r="I4">
-        <v>0.5314064034917035</v>
+        <v>0.7812411799860843</v>
       </c>
       <c r="J4">
-        <v>0.5314064034917034</v>
+        <v>0.7812411799860843</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N4">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O4">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P4">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q4">
-        <v>24181.12039561553</v>
+        <v>2.538027321422222</v>
       </c>
       <c r="R4">
-        <v>217630.0835605398</v>
+        <v>22.8422458928</v>
       </c>
       <c r="S4">
-        <v>0.5313920972210409</v>
+        <v>0.621758593952475</v>
       </c>
       <c r="T4">
-        <v>0.5313920972210407</v>
+        <v>0.621758593952475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>461.27314</v>
       </c>
       <c r="I5">
-        <v>0.5314064034917035</v>
+        <v>0.7812411799860843</v>
       </c>
       <c r="J5">
-        <v>0.5314064034917034</v>
+        <v>0.7812411799860843</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.012702</v>
       </c>
       <c r="O5">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P5">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q5">
         <v>0.6510101582533333</v>
@@ -756,10 +756,10 @@
         <v>5.85909142428</v>
       </c>
       <c r="S5">
-        <v>1.43062706626764E-05</v>
+        <v>0.1594825860336094</v>
       </c>
       <c r="T5">
-        <v>1.43062706626764E-05</v>
+        <v>0.1594825860336094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>113.006609</v>
       </c>
       <c r="I6">
-        <v>0.1301884511625437</v>
+        <v>0.1913950952387691</v>
       </c>
       <c r="J6">
-        <v>0.1301884511625437</v>
+        <v>0.1913950952387691</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N6">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O6">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P6">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q6">
-        <v>5924.096117387736</v>
+        <v>0.6217874752977778</v>
       </c>
       <c r="R6">
-        <v>53316.86505648963</v>
+        <v>5.59608727768</v>
       </c>
       <c r="S6">
-        <v>0.1301849462909289</v>
+        <v>0.1523236976668035</v>
       </c>
       <c r="T6">
-        <v>0.1301849462909289</v>
+        <v>0.1523236976668035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>113.006609</v>
       </c>
       <c r="I7">
-        <v>0.1301884511625437</v>
+        <v>0.1913950952387691</v>
       </c>
       <c r="J7">
-        <v>0.1301884511625437</v>
+        <v>0.1913950952387691</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.012702</v>
       </c>
       <c r="O7">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P7">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q7">
         <v>0.1594899941686667</v>
@@ -880,10 +880,10 @@
         <v>1.435409947518</v>
       </c>
       <c r="S7">
-        <v>3.504871614734045E-06</v>
+        <v>0.03907139757196562</v>
       </c>
       <c r="T7">
-        <v>3.504871614734044E-06</v>
+        <v>0.03907139757196562</v>
       </c>
     </row>
   </sheetData>
